--- a/コーディングルール/CodingRules.xlsx
+++ b/コーディングルール/CodingRules.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\product\DevRules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCCA2E5-A9F1-4846-8B77-43635E14CB4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02CE1FBF-0ED0-48F6-A1C1-A12568F99C6D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
+    <sheet name="File template" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -406,11 +409,133 @@
     <t>20行を超えな程度</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>MacOS: Preference -&gt; Editor -&gt; File and Code Template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows: Settings  -&gt; Editor -&gt; File and Code Template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pythonのテンプレートのところに、以下の内容を入力する </t>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># coding: utf-8
+"""
+Abstract::
+    - 
+History::
+    - Ver.      Date            Author        History
+    - 
+Copyright (C) 2020 HACHIX Corporation. All Rights Reserved.
+"""
+# 標準ライブラリ
+# 関連外部ライブラリ
+# 内部ライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># coding: utf-8
+"""
+Abstract::
+    - 
+History::
+    - Ver.      Date            Author        History
+    - 
+Copyright (C) 2020 HACHIX Corporation. All Rights Reserved.
+"""
+# 標準ライブラリ
+# 関連外部ライブラリ
+# 内部ライブラリ
+import unittest
+class MyTestCase(unittest.TestCase):
+    def test_something(self):
+        self.assertEqual(True, False)
+if __name__ == '__main__':
+    unittest.main()
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Python Unit Testのテンプレートのところに、以下の内容を入力する </t>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナイヨ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pycharmを用い、File templateシート通りに、ファイルテンプレートを準備する。</t>
+    <rPh sb="8" eb="9">
+      <t>モch</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ドオr</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジュンb</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tran Thanh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数名：test_moduleName_XX_YYY_targetFunctionName
+XX: 機能別 例: 00 - 初期化
+YY: 正常・異常別
+       正常: 001～
+       異常: 101～</t>
+    <rPh sb="0" eb="3">
+      <t>カンス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test_logger_00_001_constructor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストフォルダー構造</t>
+    <rPh sb="8" eb="10">
+      <t>コウゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">test
+      __init__.py
+      test_unnitest.py
+work_directory
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -461,126 +586,126 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,34 +713,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,39 +738,39 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -665,7 +779,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -673,17 +787,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -693,7 +807,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -701,11 +815,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -714,7 +828,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -722,10 +836,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -736,16 +850,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -753,16 +864,67 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,71 +932,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,7 +1017,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75543988-4216-40AB-843C-12C02BBEF58D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75543988-4216-40AB-843C-12C02BBEF58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +1061,7 @@
         <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69ADDC7B-8164-403A-9B90-7DBE8D436B5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69ADDC7B-8164-403A-9B90-7DBE8D436B5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,6 +1107,140 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="15909" t="9697" r="15783" b="9697"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5397500" y="139699"/>
+          <a:ext cx="6705600" cy="4945535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16036" t="10303" r="15783" b="9696"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5359400" y="5207000"/>
+          <a:ext cx="6858000" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482599</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628236</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="15783" t="9899" r="15910" b="9293"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372099" y="11264900"/>
+          <a:ext cx="6990937" cy="5168900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1264,917 +1542,927 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF71F7DB-63D3-4D03-A31D-0FEEDBEE3966}">
-  <dimension ref="A1:AN21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12:AF12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:40" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:40" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:40" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="20" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="20" t="s">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22" t="s">
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22" t="s">
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="27"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="B5" s="3">
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="14"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <f>ROW() - 4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="23" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="18" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="19">
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="8">
         <v>44013</v>
       </c>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="B6" s="3">
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <f t="shared" ref="B6:B20" si="0">ROW() - 4</f>
         <v>2</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="5" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="18" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="19">
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="8">
         <v>44013</v>
       </c>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="B7" s="3">
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-    </row>
-    <row r="8" spans="1:40" ht="93" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="3">
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+    </row>
+    <row r="8" spans="1:40" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="18" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="18" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="19">
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="8">
         <v>44013</v>
       </c>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-    </row>
-    <row r="9" spans="1:40" ht="186" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="3">
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+    </row>
+    <row r="9" spans="1:40" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="18" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="19">
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="8">
         <v>44013</v>
       </c>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="B10" s="3">
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-    </row>
-    <row r="11" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="3">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="5" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="18" t="s">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="18" t="s">
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="19">
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="8">
         <v>44013</v>
       </c>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="B12" s="3">
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="5" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="18" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="19">
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="8">
         <v>44013</v>
       </c>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="5" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="18" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="19">
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="8">
         <v>44013</v>
       </c>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-    </row>
-    <row r="14" spans="1:40" ht="88.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="3">
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+    </row>
+    <row r="14" spans="1:40" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="28" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="18" t="s">
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="19">
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="8">
         <v>44013</v>
       </c>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="B15" s="3">
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="5" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5" t="s">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="18" t="s">
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="19">
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="8">
         <v>44013</v>
       </c>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-    </row>
-    <row r="16" spans="1:40" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="3">
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="1:40" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="18" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="18" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="19">
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="8">
         <v>44013</v>
       </c>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-    </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B17" s="3">
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="5" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5" t="s">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="18" t="s">
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="19">
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="8">
         <v>44013</v>
       </c>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-    </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B18" s="3">
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="5" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="18" t="s">
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="19">
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="8">
         <v>44013</v>
       </c>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-    </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B19" s="3">
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="5" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5" t="s">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="18" t="s">
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="19">
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="8">
         <v>44013</v>
       </c>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-    </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B20" s="3">
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="5" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5" t="s">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="18" t="s">
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="19">
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="8">
         <v>44013</v>
       </c>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-    </row>
-    <row r="21" spans="2:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="2"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="6"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+    </row>
+    <row r="21" spans="2:40" ht="98" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="42">
+        <v>17</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
@@ -2185,22 +2473,146 @@
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="6"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="8">
+        <v>44032</v>
+      </c>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
     </row>
+    <row r="22" spans="2:40" ht="85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="42">
+        <v>18</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="8">
+        <v>44032</v>
+      </c>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="85">
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="U22:AF22"/>
+    <mergeCell ref="I22:T22"/>
+    <mergeCell ref="AK19:AN19"/>
+    <mergeCell ref="U21:AF21"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="I12:T12"/>
+    <mergeCell ref="U12:AF12"/>
+    <mergeCell ref="I20:T20"/>
+    <mergeCell ref="U13:AF13"/>
+    <mergeCell ref="U14:AF14"/>
+    <mergeCell ref="U15:AF15"/>
+    <mergeCell ref="U16:AF16"/>
+    <mergeCell ref="U20:AF20"/>
+    <mergeCell ref="I15:T15"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="AK17:AN17"/>
+    <mergeCell ref="I18:T18"/>
+    <mergeCell ref="U18:AF18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="AK18:AN18"/>
+    <mergeCell ref="C12:H13"/>
+    <mergeCell ref="C17:H20"/>
+    <mergeCell ref="I17:T17"/>
+    <mergeCell ref="U17:AF17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="I19:T19"/>
+    <mergeCell ref="U19:AF19"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="C5:H7"/>
+    <mergeCell ref="C8:H10"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I10:T10"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="I5:T5"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="U4:AF4"/>
+    <mergeCell ref="U5:AF5"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="I6:T6"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="AK6:AN6"/>
+    <mergeCell ref="I8:T8"/>
+    <mergeCell ref="I7:T7"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="U6:AF6"/>
+    <mergeCell ref="U7:AF7"/>
+    <mergeCell ref="U8:AF8"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="AK15:AN15"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="I9:T9"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="U9:AF9"/>
+    <mergeCell ref="U10:AF10"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="I13:T13"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AK13:AN13"/>
     <mergeCell ref="I21:T21"/>
     <mergeCell ref="AG21:AJ21"/>
     <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="C21:H21"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="AG20:AJ20"/>
@@ -2213,75 +2625,376 @@
     <mergeCell ref="AK11:AN11"/>
     <mergeCell ref="U11:AF11"/>
     <mergeCell ref="I14:T14"/>
-    <mergeCell ref="I13:T13"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="AK15:AN15"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="I9:T9"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="I6:T6"/>
-    <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="AK6:AN6"/>
-    <mergeCell ref="I8:T8"/>
-    <mergeCell ref="I7:T7"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="I5:T5"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="U9:AF9"/>
-    <mergeCell ref="U10:AF10"/>
-    <mergeCell ref="C5:H7"/>
-    <mergeCell ref="C8:H10"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I10:T10"/>
-    <mergeCell ref="U4:AF4"/>
-    <mergeCell ref="U5:AF5"/>
-    <mergeCell ref="U6:AF6"/>
-    <mergeCell ref="U7:AF7"/>
-    <mergeCell ref="U8:AF8"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="C12:H13"/>
-    <mergeCell ref="C17:H20"/>
-    <mergeCell ref="I17:T17"/>
-    <mergeCell ref="U17:AF17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="AK17:AN17"/>
-    <mergeCell ref="I18:T18"/>
-    <mergeCell ref="U18:AF18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="AK18:AN18"/>
-    <mergeCell ref="I19:T19"/>
-    <mergeCell ref="U19:AF19"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="AK19:AN19"/>
-    <mergeCell ref="U21:AF21"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="I12:T12"/>
-    <mergeCell ref="U12:AF12"/>
-    <mergeCell ref="I20:T20"/>
-    <mergeCell ref="U13:AF13"/>
-    <mergeCell ref="U14:AF14"/>
-    <mergeCell ref="U15:AF15"/>
-    <mergeCell ref="U16:AF16"/>
-    <mergeCell ref="U20:AF20"/>
-    <mergeCell ref="I15:T15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E80"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B25:E45"/>
+    <mergeCell ref="B51:E80"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>